--- a/TextInfo/excel/Skill.xlsx
+++ b/TextInfo/excel/Skill.xlsx
@@ -11,13 +11,269 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>xjh:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给己方加</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>buff</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+buffid|</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">给自己还是全体加
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>自己</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>全体</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>xjh:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>给敌方加</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>buff</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>敌方一般是</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>被击中者都加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>buff</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻，单体攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人普攻2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人普攻3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人技能攻击1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻，群体攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能攻击，群体攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人技能攻击2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御提升，不攻击敌方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002|0;1001|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,6 +288,34 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,15 +638,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>10010</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>10011</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>10012</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>10020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>10021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TextInfo/excel/Skill.xlsx
+++ b/TextInfo/excel/Skill.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,26 @@
   </si>
   <si>
     <t>1002|0;1001|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林普攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林技能攻击1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，给己方一个回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001|0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -767,6 +787,46 @@
         <v>15</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>10030</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>10040</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
     </row>

--- a/TextInfo/excel/Skill.xlsx
+++ b/TextInfo/excel/Skill.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,26 @@
   </si>
   <si>
     <t>1001|0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林普攻1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矮人技能攻击3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,22 +678,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,8 +712,14 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>10010</v>
       </c>
@@ -712,8 +738,14 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>10011</v>
       </c>
@@ -732,8 +764,14 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>10012</v>
       </c>
@@ -749,8 +787,14 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>10020</v>
       </c>
@@ -769,8 +813,14 @@
       <c r="F5">
         <v>2001</v>
       </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>10021</v>
       </c>
@@ -789,45 +839,115 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>60</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7">
+        <v>10022</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>10030</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>10031</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2001</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>10040</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F10">
+        <v>1001</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/TextInfo/excel/Skill.xlsx
+++ b/TextInfo/excel/Skill.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -198,12 +198,131 @@
         </r>
       </text>
     </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>xjh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击加成，一般以攻击为主的技能才会有加成</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>,1|10,1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>表示加成属性，</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">表示加成比例
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>xjh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">技能主要类型，是攻击，还是控制，还是回复
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MainSkillType_None = -1,
+MainSkillType_Attack,
+MainSkillType_Control,  MainSkillType_Recovery</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +426,29 @@
   <si>
     <t>矮人技能攻击3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainSkillType</t>
   </si>
 </sst>
 </file>
@@ -678,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -691,9 +833,11 @@
     <col min="3" max="3" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,8 +862,14 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>10010</v>
       </c>
@@ -744,8 +894,14 @@
       <c r="H2">
         <v>5</v>
       </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>10011</v>
       </c>
@@ -770,8 +926,14 @@
       <c r="H3">
         <v>10</v>
       </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>10012</v>
       </c>
@@ -793,8 +955,14 @@
       <c r="H4">
         <v>15</v>
       </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>10020</v>
       </c>
@@ -819,8 +987,14 @@
       <c r="H5">
         <v>30</v>
       </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>10021</v>
       </c>
@@ -845,8 +1019,14 @@
       <c r="H6">
         <v>60</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>10022</v>
       </c>
@@ -871,8 +1051,14 @@
       <c r="H7">
         <v>100</v>
       </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>10030</v>
       </c>
@@ -897,8 +1083,14 @@
       <c r="H8">
         <v>5</v>
       </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>10031</v>
       </c>
@@ -923,8 +1115,14 @@
       <c r="H9">
         <v>40</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>10040</v>
       </c>
@@ -948,6 +1146,12 @@
       </c>
       <c r="H10">
         <v>30</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
